--- a/static/excel/sale_module.xlsx
+++ b/static/excel/sale_module.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/03_work/04_Document/00_Collect/BQ/开发/模板数据/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1840" windowWidth="28160" windowHeight="15920" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="480" windowWidth="28160" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>所属团队</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,10 +43,6 @@
   </si>
   <si>
     <t>销售姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、红色为必填项</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -184,9 +177,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -469,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,130 +475,115 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15623598264</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>3</v>
+      <c r="E2" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
-        <v>15623598264</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3">
+        <v>17612161114</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>12345678</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4">
-        <v>17612161114</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3">
+        <v>17602188231</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>12345678</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
-        <v>17602188231</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4">
-        <v>12345678</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
       <formula1>"互联网-电商,网络游戏,计算机软件,IT服务,电子"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>"1-49人,50-99人,100-499人,500-999人,1000-5000人,5000-10000人,10000人以上"</formula1>
     </dataValidation>
   </dataValidations>

--- a/static/excel/sale_module.xlsx
+++ b/static/excel/sale_module.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Library/Containers/com.tencent.xinWeChat/Data/Library/Application Support/com.tencent.xinWeChat/2.0b4.0.9/2c5455613c621ade590387b4dc772791/Message/MessageTemp/4fa7c02df9d372fca9b5b805fd6b630a/File/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="480" windowWidth="28160" windowHeight="15920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -193,6 +196,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -464,10 +470,10 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="23.1640625" customWidth="1"/>

--- a/static/excel/sale_module.xlsx
+++ b/static/excel/sale_module.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Library/Containers/com.tencent.xinWeChat/Data/Library/Application Support/com.tencent.xinWeChat/2.0b4.0.9/2c5455613c621ade590387b4dc772791/Message/MessageTemp/4fa7c02df9d372fca9b5b805fd6b630a/File/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/shuyun/ywh-web/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>所属团队</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,39 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>高原</t>
-  </si>
-  <si>
-    <t>刘龙</t>
-  </si>
-  <si>
-    <t>许玉纯</t>
-  </si>
-  <si>
-    <t>大数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>互联网-电商</t>
   </si>
   <si>
@@ -101,9 +65,6 @@
     <t>100-499人</t>
   </si>
   <si>
-    <t>1000-5000人</t>
-  </si>
-  <si>
     <t>用户名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -112,15 +73,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gaoyuan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>liulong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>yuchun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市</t>
+  </si>
+  <si>
+    <t>上海市</t>
+  </si>
+  <si>
+    <t>山西省</t>
+  </si>
+  <si>
+    <t>1-49人</t>
+  </si>
+  <si>
+    <t>paul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>james</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>team2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>james</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐阿仙</t>
+    <rPh sb="0" eb="1">
+      <t>xu a xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>team3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +466,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,10 +486,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -507,91 +503,94 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3">
-        <v>15623598264</v>
+        <v>15723598264</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3">
         <v>12345678</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
-        <v>17612161114</v>
+        <v>17612161789</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3">
         <v>12345678</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3">
         <v>17602188231</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3">
         <v>12345678</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
       <formula1>"互联网-电商,网络游戏,计算机软件,IT服务,电子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>"1-49人,50-99人,100-499人,500-999人,1000-5000人,5000-10000人,10000人以上"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
+      <formula1>"北京市,天津市,上海市,重庆市,河北省,山西省,辽宁省,吉林省,黑龙江省,江苏省,浙江省,安徽省,福建省,江西省,山东省,河南省,湖北省,湖南省,广东省,海南省,四川省,贵州省,云南省,陕西省,甘肃省,青海省,台湾省,内蒙古自治区,广西壮族自治区,西藏自治区,宁夏回族自治区,新疆维吾尔自治区,香港特别行政区,澳门特别行政区"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
